--- a/data/stocks/~index_ticker_list/usa/dow_jones_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/dow_jones_tickers.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Construction and Mining</t>
+          <t>Construction and mining</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/dow_jones_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/dow_jones_tickers.xlsx
@@ -524,171 +524,171 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Information technology</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2015-03-19</t>
+          <t>2024-02-26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aerospace and defense</t>
+          <t>Information technology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1987-03-12</t>
+          <t>2015-03-19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caterpillar</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Construction and mining</t>
+          <t>Aerospace and defense</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1991-05-06</t>
+          <t>1987-03-12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chevron</t>
+          <t>Caterpillar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Petroleum industry</t>
+          <t>Construction and mining</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2008-02-19</t>
+          <t>1991-05-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Chevron</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Information technology</t>
+          <t>Petroleum industry</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2009-06-08</t>
+          <t>2008-02-19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Drink industry</t>
+          <t>Information technology</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1987-03-12</t>
+          <t>2009-06-08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Broadcasting and entertainment</t>
+          <t>Drink industry</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1991-05-06</t>
+          <t>1987-03-12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dow</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chemical industry</t>
+          <t>Broadcasting and entertainment</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,396 +700,396 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Goldman Sachs</t>
+          <t>Dow</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Financial services</t>
+          <t>Chemical industry</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>1991-05-06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Home Depot</t>
+          <t>Goldman Sachs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Home Improvement</t>
+          <t>Financial services</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1999-11-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Honeywell</t>
+          <t>Home Depot</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Conglomerate</t>
+          <t>Home Improvement</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>1999-11-01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Information technology</t>
+          <t>Conglomerate</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1979-06-29</t>
+          <t>2020-08-31</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Semiconductor industry</t>
+          <t>Information technology</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1999-11-01</t>
+          <t>1979-06-29</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pharmaceutical industry</t>
+          <t>Semiconductor industry</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1997-03-17</t>
+          <t>1999-11-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JPMorgan Chase</t>
+          <t>Johnson &amp; Johnson</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Financial services</t>
+          <t>Pharmaceutical industry</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1991-05-06</t>
+          <t>1997-03-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>JPMorgan Chase</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Food industry</t>
+          <t>Financial services</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1985-10-30</t>
+          <t>1991-05-06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pharmaceutical industry</t>
+          <t>Food industry</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1979-06-29</t>
+          <t>1985-10-30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Merck</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Information technology</t>
+          <t>Pharmaceutical industry</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1999-11-01</t>
+          <t>1979-06-29</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Clothing industry</t>
+          <t>Information technology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2013-09-20</t>
+          <t>1999-11-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fast-moving consumer goods</t>
+          <t>Clothing industry</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1932-05-26</t>
+          <t>2013-09-20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Procter &amp; Gamble</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Information technology</t>
+          <t>Fast-moving consumer goods</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>1932-05-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Travelers</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Information technology</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2009-06-08</t>
+          <t>2020-08-31</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UnitedHealth Group</t>
+          <t>Travelers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Managed health care</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2012-09-24</t>
+          <t>2009-06-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>UnitedHealth Group</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Telecommunications industry</t>
+          <t>Managed health care</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2004-04-08</t>
+          <t>2012-09-24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Verizon</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Financial services</t>
+          <t>Telecommunications industry</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2013-09-20</t>
+          <t>2004-04-08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Retailing</t>
+          <t>Financial services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2013-09-20</t>
         </is>
       </c>
     </row>
